--- a/Components/BOM Big Pneumatics.xlsx
+++ b/Components/BOM Big Pneumatics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/kurtis_laqua_mail_utoronto_ca/Documents/Programmable Pneumatics/Pneumatics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{21F0E161-6317-CA47-A04C-ADD08ACBC94E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F6825C7-AFCA-D24B-B06E-42B288534234}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{21F0E161-6317-CA47-A04C-ADD08ACBC94E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97BB2284-77AE-A04B-B7A2-5DDB1C842A24}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29400" windowHeight="16060" xr2:uid="{87D53C9D-2CBF-F749-AE28-7DACE6175C0D}"/>
+    <workbookView xWindow="11020" yWindow="1200" windowWidth="29400" windowHeight="16060" xr2:uid="{87D53C9D-2CBF-F749-AE28-7DACE6175C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
   <si>
     <t>Hattonlab Pneumatics BOM</t>
   </si>
@@ -268,13 +268,19 @@
   </si>
   <si>
     <t>Valve Control</t>
+  </si>
+  <si>
+    <t>https://www.creatroninc.com/product/12v-vacuum-pump/?search_query=pump&amp;results=8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,6 +350,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,13 +384,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -387,11 +402,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -707,7 +726,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,10 +799,10 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <v>0.65</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="9">
         <v>0.65</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -801,10 +820,10 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <v>1.25</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="9">
         <v>1.25</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -825,10 +844,10 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="9">
         <v>11.99</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="9">
         <v>11.99</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -840,6 +859,8 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -851,10 +872,10 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="9">
         <v>19.989999999999998</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="9">
         <v>19.989999999999998</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -875,10 +896,10 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="9">
         <v>14</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="9">
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -896,9 +917,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -910,11 +935,18 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
-        <v>39.450000000000003</v>
-      </c>
-      <c r="E13" s="2">
-        <v>78.900000000000006</v>
+      <c r="D13" s="9">
+        <v>27.95</v>
+      </c>
+      <c r="E13" s="9">
+        <f>D13*C13</f>
+        <v>55.9</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -966,7 +998,7 @@
       <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="9">
         <v>1.155</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -990,7 +1022,7 @@
       <c r="D19" s="2">
         <v>0.6</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="9">
         <v>6.6</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1014,7 +1046,7 @@
       <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1032,7 +1064,7 @@
       <c r="D21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1047,6 +1079,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -1061,7 +1094,7 @@
       <c r="D23" s="2">
         <v>60</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="9">
         <f>C23*D23</f>
         <v>420</v>
       </c>
@@ -1107,7 +1140,7 @@
       <c r="D28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="10">
         <v>1.92</v>
       </c>
       <c r="G28" s="2" t="s">

--- a/Components/BOM Big Pneumatics.xlsx
+++ b/Components/BOM Big Pneumatics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/kurtis_laqua_mail_utoronto_ca/Documents/Programmable Pneumatics/Pneumatics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurtislaqua/Documents/GitHub/Pneumatics/Components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{21F0E161-6317-CA47-A04C-ADD08ACBC94E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97BB2284-77AE-A04B-B7A2-5DDB1C842A24}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D217F16-6AE6-D94D-BE4C-9E82A5D15AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11020" yWindow="1200" windowWidth="29400" windowHeight="16060" xr2:uid="{87D53C9D-2CBF-F749-AE28-7DACE6175C0D}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -234,9 +236,6 @@
     <t>~2</t>
   </si>
   <si>
-    <t>24 per 25</t>
-  </si>
-  <si>
     <t>led RED 5mm 2.2V 8mA</t>
   </si>
   <si>
@@ -271,6 +270,9 @@
   </si>
   <si>
     <t>https://www.creatroninc.com/product/12v-vacuum-pump/?search_query=pump&amp;results=8</t>
+  </si>
+  <si>
+    <t>$24 per 25</t>
   </si>
 </sst>
 </file>
@@ -726,7 +728,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,7 +817,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -833,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -864,10 +866,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -912,7 +914,7 @@
         <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -946,7 +948,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -981,7 +983,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -1056,13 +1058,13 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2">
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="9">
         <v>1.1000000000000001</v>
@@ -1086,7 +1088,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2">
         <v>7</v>
@@ -1138,7 +1140,7 @@
         <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E28" s="10">
         <v>1.92</v>
@@ -1190,7 +1192,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>18</v>
@@ -1243,7 +1245,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
